--- a/单元测试文档/单元测试用例.xlsx
+++ b/单元测试文档/单元测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>用例序号</t>
   </si>
@@ -33,10 +33,22 @@
     <t>预期结果</t>
   </si>
   <si>
+    <t>是否成功</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
     <t>道路附属设施</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -51,6 +63,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>”</t>
     </r>
     <r>
@@ -74,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -145,6 +169,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -216,6 +246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -269,6 +305,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -340,6 +382,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -411,6 +459,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -482,6 +536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -553,6 +613,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -624,6 +690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":非空</t>
     </r>
     <r>
@@ -698,6 +770,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -739,6 +817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":{"id":9,"create_time":"2016-04-25T04:00:48.000Z","update_time":"2016-04-25T04:00:48.000Z","price":"5000","start_time":"2016-04-12T16:00:00.000Z","end_time":"2016-04-14T16:00:00.000Z","advertiser_id":8,"content":"[科教</t>
     </r>
     <r>
@@ -834,6 +918,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>返回</t>
     </r>
     <r>
@@ -884,6 +974,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>"</t>
     </r>
     <r>
@@ -910,6 +1006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>抛出</t>
     </r>
     <r>
@@ -963,6 +1065,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":</t>
     </r>
     <r>
@@ -1010,6 +1118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"errno":0,"errmsg":"","data":{"id":</t>
     </r>
     <r>
@@ -1099,6 +1213,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注册失败</t>
     </r>
     <r>
@@ -1191,6 +1311,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功注册</t>
     </r>
     <r>
@@ -1232,6 +1358,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1417,6 +1549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1566,6 +1704,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1679,6 +1823,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1828,6 +1978,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -2085,6 +2241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -2270,6 +2432,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -2419,6 +2587,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -2604,6 +2778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>调用</t>
     </r>
     <r>
@@ -2627,6 +2807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -2855,12 +3041,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2870,13 +3056,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2896,14 +3075,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2919,10 +3090,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2934,7 +3113,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2964,51 +3204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3017,24 +3212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3055,19 +3234,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,49 +3288,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3139,49 +3342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3199,43 +3372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,45 +3425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3312,6 +3452,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3330,19 +3520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3351,152 +3530,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3506,20 +3685,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -3868,15 +4038,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3888,6 +4058,12 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:4">
@@ -3898,10 +4074,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:4">
@@ -3912,10 +4088,10 @@
         <v>-1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:4">
@@ -3926,10 +4102,10 @@
         <v>1.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -3939,22 +4115,22 @@
       <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="25.5" spans="1:4">
@@ -3964,11 +4140,11 @@
       <c r="B7" s="1">
         <v>2000</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:4">
@@ -3978,11 +4154,11 @@
       <c r="B8" s="1">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:4">
@@ -3992,11 +4168,11 @@
       <c r="B9" s="1">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="93.75" spans="1:4">
@@ -4006,11 +4182,11 @@
       <c r="B10" s="1">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="93.75" spans="1:4">
@@ -4020,11 +4196,11 @@
       <c r="B11" s="1">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="93.75" spans="1:4">
@@ -4034,11 +4210,11 @@
       <c r="B12" s="1">
         <v>19</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="93.75" spans="1:4">
@@ -4048,11 +4224,11 @@
       <c r="B13" s="1">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="93.75" spans="1:4">
@@ -4062,11 +4238,11 @@
       <c r="B14" s="1">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="93.75" spans="1:4">
@@ -4076,11 +4252,11 @@
       <c r="B15" s="1">
         <v>19</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4093,23 +4269,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:3">
@@ -4117,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:3">
@@ -4125,10 +4307,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:3">
@@ -4139,7 +4321,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:3">
@@ -4147,10 +4329,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4163,26 +4345,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="41.25" spans="1:4">
@@ -4193,7 +4381,7 @@
         <v>123456</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="41.25" spans="1:4">
@@ -4201,10 +4389,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="41.25" spans="1:4">
@@ -4212,13 +4400,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="41.25" spans="1:4">
@@ -4226,27 +4414,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="41.25" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="25.5" spans="1:4">
@@ -4254,13 +4442,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>123456</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4273,23 +4461,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4297,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="369.75" spans="1:3">
@@ -4308,10 +4502,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="369.75" spans="1:3">
@@ -4319,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="41.25" spans="1:3">
@@ -4330,10 +4524,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" ht="369.75" spans="1:3">
@@ -4341,10 +4535,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="369.75" spans="1:3">
@@ -4352,10 +4546,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="357" spans="1:3">
@@ -4363,10 +4557,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="357" spans="1:3">
@@ -4374,10 +4568,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="369.75" spans="1:3">
@@ -4385,10 +4579,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="344.25" spans="1:3">
@@ -4396,10 +4590,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="357" spans="1:3">
@@ -4407,10 +4601,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="357" spans="1:3">
@@ -4418,10 +4612,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="369.75" spans="1:3">
@@ -4429,10 +4623,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="357" spans="1:3">
@@ -4440,10 +4634,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="357" spans="1:3">
@@ -4451,10 +4645,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="385.5" spans="1:3">
@@ -4462,10 +4656,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="382.5" spans="1:3">
@@ -4473,10 +4667,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:3">
@@ -4484,10 +4678,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="385.5" spans="1:3">
@@ -4495,10 +4689,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="382.5" spans="1:3">
@@ -4506,10 +4700,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="382.5" spans="1:3">
@@ -4517,10 +4711,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="369.75" spans="1:3">
@@ -4528,10 +4722,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="382.5" spans="1:3">
@@ -4539,10 +4733,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="382.5" spans="1:3">
@@ -4550,10 +4744,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="382.5" spans="1:3">
@@ -4561,10 +4755,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="382.5" spans="1:3">
@@ -4572,10 +4766,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="382.5" spans="1:3">
@@ -4583,10 +4777,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="382.5" spans="1:3">
@@ -4594,10 +4788,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="382.5" spans="1:3">
@@ -4605,10 +4799,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4620,10 +4814,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4631,53 +4825,58 @@
     <col min="6" max="6" width="11.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>74</v>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
       <c r="C3">
         <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>123</v>
@@ -4686,13 +4885,13 @@
         <v>13568682711</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:9">
@@ -4702,9 +4901,8 @@
       <c r="B4">
         <v>124</v>
       </c>
-      <c r="C4"/>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>124</v>
@@ -4713,13 +4911,13 @@
         <v>13568682712</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
         <v>79</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4740,13 +4938,13 @@
         <v>13568682713</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:9">
@@ -4760,20 +4958,20 @@
         <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>13568682714</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="25.5" spans="1:9">
@@ -4787,20 +4985,20 @@
         <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1">
         <v>127</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="25.5" spans="1:9">
@@ -4814,7 +5012,7 @@
         <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>128</v>
@@ -4823,11 +5021,11 @@
         <v>13568682716</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
-        <v>86</v>
+      <c r="H8" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="25.5" spans="1:9">
@@ -4841,7 +5039,7 @@
         <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1">
         <v>129</v>
@@ -4850,11 +5048,11 @@
         <v>13568682717</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4867,8 +5065,8 @@
       <c r="C10">
         <v>130</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>130</v>
@@ -4877,13 +5075,13 @@
         <v>13568682718</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:9">
@@ -4897,7 +5095,7 @@
         <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>131</v>
@@ -4906,13 +5104,13 @@
         <v>13568682719</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="4:8">
@@ -4931,23 +5129,29 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="41.25" spans="1:3">
@@ -4955,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:3">
@@ -4966,10 +5170,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:3">
@@ -4977,10 +5181,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:3">
@@ -4988,10 +5192,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:3">
@@ -4999,10 +5203,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="84" spans="1:3">
@@ -5010,10 +5214,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="71.25" spans="1:3">
@@ -5021,10 +5225,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:3">
@@ -5032,10 +5236,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="71.25" spans="1:3">
@@ -5043,10 +5247,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:3">
@@ -5054,10 +5258,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
